--- a/data/pca/factorExposure/factorExposure_2012-10-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-10-18.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.001155443435548895</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001729212064324119</v>
+      </c>
+      <c r="C2">
+        <v>0.02962500561500912</v>
+      </c>
+      <c r="D2">
+        <v>0.006090582532637044</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.001887194851902515</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006809899967774834</v>
+      </c>
+      <c r="C4">
+        <v>0.08258993384201238</v>
+      </c>
+      <c r="D4">
+        <v>0.07261487771070468</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.001198694441520846</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01388733328553903</v>
+      </c>
+      <c r="C6">
+        <v>0.1128989180041789</v>
+      </c>
+      <c r="D6">
+        <v>0.02438754048851465</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.0009184546060483098</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.004936600675563498</v>
+      </c>
+      <c r="C7">
+        <v>0.0580391409558643</v>
+      </c>
+      <c r="D7">
+        <v>0.03307105446279673</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.002475482390340746</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005700175257824219</v>
+      </c>
+      <c r="C8">
+        <v>0.03438285028430042</v>
+      </c>
+      <c r="D8">
+        <v>0.0406935383553245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.003235907067472471</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.005042215228370645</v>
+      </c>
+      <c r="C9">
+        <v>0.07023914912050745</v>
+      </c>
+      <c r="D9">
+        <v>0.07646008845502905</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.0009945206840878689</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.005652078862156073</v>
+      </c>
+      <c r="C10">
+        <v>0.05662129628711286</v>
+      </c>
+      <c r="D10">
+        <v>-0.1963330547915512</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.003319800934407416</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.00565669170591054</v>
+      </c>
+      <c r="C11">
+        <v>0.07924087736726006</v>
+      </c>
+      <c r="D11">
+        <v>0.06457513098284311</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.001577369979523971</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004077224960575492</v>
+      </c>
+      <c r="C12">
+        <v>0.06412187143693746</v>
+      </c>
+      <c r="D12">
+        <v>0.05202947712488326</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.001310008960165183</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008247119944832773</v>
+      </c>
+      <c r="C13">
+        <v>0.06671753800234521</v>
+      </c>
+      <c r="D13">
+        <v>0.06338056734886917</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001676442101684458</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.0006132568163194853</v>
+      </c>
+      <c r="C14">
+        <v>0.04216894150423683</v>
+      </c>
+      <c r="D14">
+        <v>0.009457748267256429</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0009657159854541019</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005755929181889182</v>
+      </c>
+      <c r="C15">
+        <v>0.0406286834526398</v>
+      </c>
+      <c r="D15">
+        <v>0.02934653810756344</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.001211600925585906</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.005028889733098315</v>
+      </c>
+      <c r="C16">
+        <v>0.06407019224543532</v>
+      </c>
+      <c r="D16">
+        <v>0.05657765311196937</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.0001298105814048693</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008990512111627165</v>
+      </c>
+      <c r="C20">
+        <v>0.06360078222215035</v>
+      </c>
+      <c r="D20">
+        <v>0.05008162984591014</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.006829181892914983</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009544925008780899</v>
+      </c>
+      <c r="C21">
+        <v>0.01951733437446403</v>
+      </c>
+      <c r="D21">
+        <v>0.04274407891901345</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01537729229274569</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.006981700793696493</v>
+      </c>
+      <c r="C22">
+        <v>0.08668155443262474</v>
+      </c>
+      <c r="D22">
+        <v>0.1214805288042097</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01516118182516686</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006793591625919647</v>
+      </c>
+      <c r="C23">
+        <v>0.08719157287444064</v>
+      </c>
+      <c r="D23">
+        <v>0.122296808996782</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.002794212741133423</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005563492368263666</v>
+      </c>
+      <c r="C24">
+        <v>0.07566564912942036</v>
+      </c>
+      <c r="D24">
+        <v>0.06836583707178093</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.004597201914319131</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003129812286086508</v>
+      </c>
+      <c r="C25">
+        <v>0.07790732742636103</v>
+      </c>
+      <c r="D25">
+        <v>0.0664186100007079</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.003065208378837858</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003652340438396424</v>
+      </c>
+      <c r="C26">
+        <v>0.03877004185419507</v>
+      </c>
+      <c r="D26">
+        <v>0.02558438402555172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.007026872132952164</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.001118304735618013</v>
+      </c>
+      <c r="C28">
+        <v>0.1046970924759523</v>
+      </c>
+      <c r="D28">
+        <v>-0.320078818697645</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.0006063936237811222</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.00253914462266566</v>
+      </c>
+      <c r="C29">
+        <v>0.04852527043126773</v>
+      </c>
+      <c r="D29">
+        <v>0.008613049935460575</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.006643082218937185</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.00975634501419974</v>
+      </c>
+      <c r="C30">
+        <v>0.1421255602932622</v>
+      </c>
+      <c r="D30">
+        <v>0.1092394499090255</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.0009683903379864607</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006127561613222017</v>
+      </c>
+      <c r="C31">
+        <v>0.04351084540946346</v>
+      </c>
+      <c r="D31">
+        <v>0.03128539806652108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.002372857281479274</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.003502074702423846</v>
+      </c>
+      <c r="C32">
+        <v>0.03961088375248056</v>
+      </c>
+      <c r="D32">
+        <v>0.02638649603159397</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.002613987071380877</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.009036635734707749</v>
+      </c>
+      <c r="C33">
+        <v>0.08823622154584171</v>
+      </c>
+      <c r="D33">
+        <v>0.0661103023822847</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004097561368071174</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.004104835538755446</v>
+      </c>
+      <c r="C34">
+        <v>0.05728553846235374</v>
+      </c>
+      <c r="D34">
+        <v>0.058639293837359</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.0005857199416165631</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005181728160755741</v>
+      </c>
+      <c r="C35">
+        <v>0.04072032907342072</v>
+      </c>
+      <c r="D35">
+        <v>0.01999609055888656</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.005038786369207572</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001497550929115182</v>
+      </c>
+      <c r="C36">
+        <v>0.02433798082946241</v>
+      </c>
+      <c r="D36">
+        <v>0.02519062354995374</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.0006109318498788997</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009202730370538816</v>
+      </c>
+      <c r="C38">
+        <v>0.03801512536357143</v>
+      </c>
+      <c r="D38">
+        <v>0.01352072418319376</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01418804553375502</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.001123548396726365</v>
+      </c>
+      <c r="C39">
+        <v>0.1139689888072009</v>
+      </c>
+      <c r="D39">
+        <v>0.07901166706461525</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.009692250303418332</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.003321166846303139</v>
+      </c>
+      <c r="C40">
+        <v>0.08939164818181296</v>
+      </c>
+      <c r="D40">
+        <v>0.01676360510405454</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0008014861487257896</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007183355957500986</v>
+      </c>
+      <c r="C41">
+        <v>0.03872492671448761</v>
+      </c>
+      <c r="D41">
+        <v>0.03870290925637482</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002724729929611021</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003917114592372154</v>
+      </c>
+      <c r="C43">
+        <v>0.05343847885248715</v>
+      </c>
+      <c r="D43">
+        <v>0.02748659437402145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.01370239552034913</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.003029898689370324</v>
+      </c>
+      <c r="C44">
+        <v>0.1051231994172906</v>
+      </c>
+      <c r="D44">
+        <v>0.06978953764679427</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.0008519928809524199</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.001706659657122511</v>
+      </c>
+      <c r="C46">
+        <v>0.03265971717696445</v>
+      </c>
+      <c r="D46">
+        <v>0.03375679431613227</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.001471525018780233</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002026009863726131</v>
+      </c>
+      <c r="C47">
+        <v>0.03463414741347979</v>
+      </c>
+      <c r="D47">
+        <v>0.0225533361664937</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003257936917643227</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006621642462753475</v>
+      </c>
+      <c r="C48">
+        <v>0.03004161846796255</v>
+      </c>
+      <c r="D48">
+        <v>0.03675674293792125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01004056078104837</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01752713444559753</v>
+      </c>
+      <c r="C49">
+        <v>0.1897522848779061</v>
+      </c>
+      <c r="D49">
+        <v>0.006385270418182802</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0006633928251248438</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003437160960319198</v>
+      </c>
+      <c r="C50">
+        <v>0.04255950859207124</v>
+      </c>
+      <c r="D50">
+        <v>0.03882117371481487</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.000407329309913207</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004596130994379629</v>
+      </c>
+      <c r="C51">
+        <v>0.02541694464883135</v>
+      </c>
+      <c r="D51">
+        <v>0.02179736411251165</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0005837235992070851</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02137479844383874</v>
+      </c>
+      <c r="C53">
+        <v>0.1715879248618989</v>
+      </c>
+      <c r="D53">
+        <v>0.02303707990223029</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001964318003314531</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.008761804792184984</v>
+      </c>
+      <c r="C54">
+        <v>0.05306982878358085</v>
+      </c>
+      <c r="D54">
+        <v>0.04619742115497944</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.003923939913827853</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009503710229670538</v>
+      </c>
+      <c r="C55">
+        <v>0.1076472823719989</v>
+      </c>
+      <c r="D55">
+        <v>0.04058167008682593</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002560649869562878</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.02015719588331543</v>
+      </c>
+      <c r="C56">
+        <v>0.1757491041389833</v>
+      </c>
+      <c r="D56">
+        <v>0.01586017298656256</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.005255580424962582</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01907245517149628</v>
+      </c>
+      <c r="C58">
+        <v>0.104678922081395</v>
+      </c>
+      <c r="D58">
+        <v>0.07188290518986511</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.008929533328681977</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.01038888379345781</v>
+      </c>
+      <c r="C59">
+        <v>0.1684531170644871</v>
+      </c>
+      <c r="D59">
+        <v>-0.3411894005519022</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.003956309383237272</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.0251491770840761</v>
+      </c>
+      <c r="C60">
+        <v>0.2255399549055039</v>
+      </c>
+      <c r="D60">
+        <v>0.02134786094928487</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01298861300805877</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001825770720631342</v>
+      </c>
+      <c r="C61">
+        <v>0.09451423219774342</v>
+      </c>
+      <c r="D61">
+        <v>0.05925121172669747</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1558495978847716</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1488156048931596</v>
+      </c>
+      <c r="C62">
+        <v>0.09578692229679697</v>
+      </c>
+      <c r="D62">
+        <v>0.02541556444280229</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.0001455621163982215</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006552256457290065</v>
+      </c>
+      <c r="C63">
+        <v>0.05345529223794811</v>
+      </c>
+      <c r="D63">
+        <v>0.03239907423597592</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.000604284118681193</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01583352084006805</v>
+      </c>
+      <c r="C64">
+        <v>0.1046920368541351</v>
+      </c>
+      <c r="D64">
+        <v>0.05664070882943923</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.002626251371140667</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01775374361755181</v>
+      </c>
+      <c r="C65">
+        <v>0.1216790927756197</v>
+      </c>
+      <c r="D65">
+        <v>0.02402721798189072</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.005446083609526641</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01361701788311679</v>
+      </c>
+      <c r="C66">
+        <v>0.1619575239654533</v>
+      </c>
+      <c r="D66">
+        <v>0.1098115754248701</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.002717869703155884</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01542670648884221</v>
+      </c>
+      <c r="C67">
+        <v>0.06968521144007389</v>
+      </c>
+      <c r="D67">
+        <v>0.02570586797050448</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.007299206341944851</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.001076866027423864</v>
+      </c>
+      <c r="C68">
+        <v>0.08754834710540677</v>
+      </c>
+      <c r="D68">
+        <v>-0.2570470041435614</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.001084021934208504</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006360342802573485</v>
+      </c>
+      <c r="C69">
+        <v>0.05222855974099194</v>
+      </c>
+      <c r="D69">
+        <v>0.03729211820053783</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.0005304130262152003</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.002010267340273425</v>
+      </c>
+      <c r="C70">
+        <v>0.005925897087703505</v>
+      </c>
+      <c r="D70">
+        <v>0.0006900255653352428</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.002628692588257998</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.005921255424089947</v>
+      </c>
+      <c r="C71">
+        <v>0.09220174494659417</v>
+      </c>
+      <c r="D71">
+        <v>-0.300727528582873</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.005317332502755749</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.0165289127532466</v>
+      </c>
+      <c r="C72">
+        <v>0.156407086177442</v>
+      </c>
+      <c r="D72">
+        <v>0.01416877577143289</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.010349270248739</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03185944087127449</v>
+      </c>
+      <c r="C73">
+        <v>0.2826364777520664</v>
+      </c>
+      <c r="D73">
+        <v>0.05651229004225127</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.00643381498654858</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.002020392971371814</v>
+      </c>
+      <c r="C74">
+        <v>0.102317797897342</v>
+      </c>
+      <c r="D74">
+        <v>0.03630049546551623</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.004097332593416359</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01119798617950183</v>
+      </c>
+      <c r="C75">
+        <v>0.122273533877597</v>
+      </c>
+      <c r="D75">
+        <v>0.02401370675474557</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.007607669767208831</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02217105992435912</v>
+      </c>
+      <c r="C76">
+        <v>0.1472793060844506</v>
+      </c>
+      <c r="D76">
+        <v>0.05868154630435089</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.001715417433679873</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02175877133459586</v>
+      </c>
+      <c r="C77">
+        <v>0.1128113973254089</v>
+      </c>
+      <c r="D77">
+        <v>0.05019935903688956</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0005851878139224104</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01499360573442662</v>
+      </c>
+      <c r="C78">
+        <v>0.09616769629051206</v>
+      </c>
+      <c r="D78">
+        <v>0.07748811117318924</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02200457371290686</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03851252046475691</v>
+      </c>
+      <c r="C79">
+        <v>0.1562911740639109</v>
+      </c>
+      <c r="D79">
+        <v>0.03267903586466813</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006519056658580342</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.0100254546245737</v>
+      </c>
+      <c r="C80">
+        <v>0.0377959115176</v>
+      </c>
+      <c r="D80">
+        <v>0.03113110618965883</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.0002048143552751098</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01585540662726206</v>
+      </c>
+      <c r="C81">
+        <v>0.1292311600767878</v>
+      </c>
+      <c r="D81">
+        <v>0.03900700784367139</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.003246326766290403</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.02002788761749275</v>
+      </c>
+      <c r="C82">
+        <v>0.1391295953159634</v>
+      </c>
+      <c r="D82">
+        <v>0.040030594493292</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.006662546932512121</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.01048103476637587</v>
+      </c>
+      <c r="C83">
+        <v>0.05907978473075038</v>
+      </c>
+      <c r="D83">
+        <v>0.05007420750718874</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01143102780008096</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01197122737130801</v>
+      </c>
+      <c r="C84">
+        <v>0.03740231795479431</v>
+      </c>
+      <c r="D84">
+        <v>-0.002813265675874315</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.0142714736581735</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02964044520998621</v>
+      </c>
+      <c r="C85">
+        <v>0.1246011335776224</v>
+      </c>
+      <c r="D85">
+        <v>0.04165628080399498</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.002041387486491875</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.004512898075807893</v>
+      </c>
+      <c r="C86">
+        <v>0.05077469659142233</v>
+      </c>
+      <c r="D86">
+        <v>0.02705081036059516</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.003429114802588664</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01089049532705545</v>
+      </c>
+      <c r="C87">
+        <v>0.1279297502878657</v>
+      </c>
+      <c r="D87">
+        <v>0.07592080743307683</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01122622594874653</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.002923663902750052</v>
+      </c>
+      <c r="C88">
+        <v>0.06362991591251545</v>
+      </c>
+      <c r="D88">
+        <v>0.02588147302041701</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01340598106340224</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.001621851386405821</v>
+      </c>
+      <c r="C89">
+        <v>0.1403558012887358</v>
+      </c>
+      <c r="D89">
+        <v>-0.3195620618102211</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.005228385301970281</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.00686587045221157</v>
+      </c>
+      <c r="C90">
+        <v>0.1211447690177385</v>
+      </c>
+      <c r="D90">
+        <v>-0.3141512178870378</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>-0.001007694278211193</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01045813022327115</v>
+      </c>
+      <c r="C91">
+        <v>0.09912518311128429</v>
+      </c>
+      <c r="D91">
+        <v>0.02562963819609031</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.01109996498749959</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.0008187782509561197</v>
+      </c>
+      <c r="C92">
+        <v>0.1353143932953784</v>
+      </c>
+      <c r="D92">
+        <v>-0.3222961749709106</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.004675774933712813</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.004865614584784578</v>
+      </c>
+      <c r="C93">
+        <v>0.1063336498282157</v>
+      </c>
+      <c r="D93">
+        <v>-0.2996458201551744</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.0003452985244422851</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02185711409517274</v>
+      </c>
+      <c r="C94">
+        <v>0.1430496467819783</v>
+      </c>
+      <c r="D94">
+        <v>0.05332588800673474</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.002260500499840755</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.0165854696535489</v>
+      </c>
+      <c r="C95">
+        <v>0.1214518541184686</v>
+      </c>
+      <c r="D95">
+        <v>0.06539352218595149</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.004246240159422437</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03708446422912533</v>
+      </c>
+      <c r="C97">
+        <v>0.2239173697967241</v>
+      </c>
+      <c r="D97">
+        <v>0.00398542023077022</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.001473042371969892</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03808568135066537</v>
+      </c>
+      <c r="C98">
+        <v>0.2560034977485407</v>
+      </c>
+      <c r="D98">
+        <v>0.03645787141036648</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9860237523788171</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9813328946926166</v>
+      </c>
+      <c r="C99">
+        <v>-0.1199054730939376</v>
+      </c>
+      <c r="D99">
+        <v>-0.02386155616401975</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.0005284424619710789</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.002579298955470383</v>
+      </c>
+      <c r="C101">
+        <v>0.04865255684018693</v>
+      </c>
+      <c r="D101">
+        <v>0.008996348423701579</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
